--- a/biology/Médecine/Bernard_Rentier/Bernard_Rentier.xlsx
+++ b/biology/Médecine/Bernard_Rentier/Bernard_Rentier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernard Rentier, né le 12 septembre 1947 à Liège en Belgique, est un biologiste et virologue. Il a également été le recteur de l'Université de Liège, de 2005 à 2014 ainsi que le premier vice-président du Conseil fédéral de la Politique scientifique[1] de 2012 à 2023 et président du conseil d’administration de Wallonie-Bruxelles Enseignement[2] de 2019 à août 2021.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard Rentier, né le 12 septembre 1947 à Liège en Belgique, est un biologiste et virologue. Il a également été le recteur de l'Université de Liège, de 2005 à 2014 ainsi que le premier vice-président du Conseil fédéral de la Politique scientifique de 2012 à 2023 et président du conseil d’administration de Wallonie-Bruxelles Enseignement de 2019 à août 2021.
 </t>
         </is>
       </c>
@@ -511,21 +523,23 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Virologiste et immunologiste de formation, il a effectué ses recherches au National Institute for Medical Research (en) (Mill Hill, Londres, 1975) et aux National Institutes of Health (Bethesda, MD, USA, 1976-1981) puis à l'Université de Liège. Il est l'auteur de plus de 250 publications scientifiques et de vulgarisation[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Virologiste et immunologiste de formation, il a effectué ses recherches au National Institute for Medical Research (en) (Mill Hill, Londres, 1975) et aux National Institutes of Health (Bethesda, MD, USA, 1976-1981) puis à l'Université de Liège. Il est l'auteur de plus de 250 publications scientifiques et de vulgarisation.
 Ses travaux scientifiques ont porté sur l'influenza, la rougeole et la varicelle. Il a présidé la branche européenne de la Varicella-Zoster Virus Foundation (1991-2004) et le comité WAVE (Working against Varicella in Europe). Il a été vice-président de l'European Federation of Biotechnology (en) (1997-2004).
-Il a été recteur de l'Université de Liège, de 2005 à 2014[4].
+Il a été recteur de l'Université de Liège, de 2005 à 2014.
 Il a fondé et présidé d'EOS (Enabling Open Scholarship), une association internationale pour la promotion de l'accès libre aux publications scientifiques (Open Access) dans les universités, aujourd’hui dissoute, l’Open Access faisant à présent l’objet, sinon dans la forme, au moins sur le fond, d’un consensus dans les milieux scientifiques. Il est devenu docteur honoris causa de l'Université du Québec à Montréal en 2014 en reconnaissance de sa contribution au libre accès à l’information scientifique et à la promotion des valeurs de l’Open Access dans le monde.
-Il a été vice-président du Conseil Fédéral belge de la Politique scientifique[1], et président de Wallonia Biotech Coaching s.a.[5].
-De 2019 à 2021, il a présidé le conseil d’administration de WBE (Wallonie-Bruxelles Enseignement, le pouvoir organisateur de l’enseignement de la Fédération Wallonie Bruxelles)[6].
+Il a été vice-président du Conseil Fédéral belge de la Politique scientifique, et président de Wallonia Biotech Coaching s.a..
+De 2019 à 2021, il a présidé le conseil d’administration de WBE (Wallonie-Bruxelles Enseignement, le pouvoir organisateur de l’enseignement de la Fédération Wallonie Bruxelles).
 Dans un autre registre, il est président :
 de la Société Libre d'Emulation de Liège, qui se consacre à la promotion des arts et des sciences,
-des « Grandes Conférences Liégeoises[7] »,
-de l'association des Amis de l'ULg[8].
-Il a été administrateur de Mnema Cité Miroir, et membre du Comité exécutif du GRE-Liège (Groupement de Redéploiement Économique)[9].
-Il préside l'asbl Listening Orchestra (anciennement "Orchestre de Chambre de Liège")[10] et l'asbl Le Concours de Piano de Liège[11]] ainsi que l'asile Liège aide Haïti".
-Bernard Rentier est l’auteur d’un livre intitulé « Science Ouverte, le défi de la transparence » paru aux Éditions de l’Académie Royale de Belgique en décembre 2018. Une version téléchargeable gratuitement a été mise en ligne par l’académie dès la parution de la version imprimée, en concordance avec les principes de l’auteur. La version anglaise « Open Science, the Challenge of Transparency » est sorti (en ligne uniquement et gratuit) en mars 2019. Le livre a reçu, en novembre 2019, le Prix du Livre Politique en Belgique[12]. Les deux versions, française et anglaise, sont accessibles en ligne auprès de l’Académie ou en post-print auteur dans l’archive institutionnelle de l’ULiège, ORBi[13].
+des « Grandes Conférences Liégeoises »,
+de l'association des Amis de l'ULg.
+Il a été administrateur de Mnema Cité Miroir, et membre du Comité exécutif du GRE-Liège (Groupement de Redéploiement Économique).
+Il préside l'asbl Listening Orchestra (anciennement "Orchestre de Chambre de Liège") et l'asbl Le Concours de Piano de Liège] ainsi que l'asile Liège aide Haïti".
+Bernard Rentier est l’auteur d’un livre intitulé « Science Ouverte, le défi de la transparence » paru aux Éditions de l’Académie Royale de Belgique en décembre 2018. Une version téléchargeable gratuitement a été mise en ligne par l’académie dès la parution de la version imprimée, en concordance avec les principes de l’auteur. La version anglaise « Open Science, the Challenge of Transparency » est sorti (en ligne uniquement et gratuit) en mars 2019. Le livre a reçu, en novembre 2019, le Prix du Livre Politique en Belgique. Les deux versions, française et anglaise, sont accessibles en ligne auprès de l’Académie ou en post-print auteur dans l’archive institutionnelle de l’ULiège, ORBi.
 </t>
         </is>
       </c>
@@ -554,14 +568,16 @@
           <t>Prix et distinctions scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N.I.H. Fellowship, 1976[14].
-Prix de la Fondation Rotary pour la recherche médicale, 1982[14].
-Prix de Launoît des Amis de l'Université de Liège, 1983[14].
-Prix Charles J. Ketelaer de la Ligue Belge contre la Sclérose en Plaques[15], 1983[14].
-Prix du Centre d'Études Princesse Joséphine-Charlotte pour la lutte contre les infections virales du système nerveux et la poliomyélite[16], 1989[14].
-Doctorat honoris causa de l’Université du Québec à Montréal, 2014[17].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N.I.H. Fellowship, 1976.
+Prix de la Fondation Rotary pour la recherche médicale, 1982.
+Prix de Launoît des Amis de l'Université de Liège, 1983.
+Prix Charles J. Ketelaer de la Ligue Belge contre la Sclérose en Plaques, 1983.
+Prix du Centre d'Études Princesse Joséphine-Charlotte pour la lutte contre les infections virales du système nerveux et la poliomyélite, 1989.
+Doctorat honoris causa de l’Université du Québec à Montréal, 2014.</t>
         </is>
       </c>
     </row>
@@ -589,11 +605,13 @@
           <t>Distinctions honorifiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Docteur honoris causa de l'Université du Québec à Montréal.
-Commandeur de l'Ordre de la Couronne[14].
-Grand Officier de l'ordre de Léopold II[14].
+Commandeur de l'Ordre de la Couronne.
+Grand Officier de l'ordre de Léopold II.
 Chevalier dans l'Ordre des Palmes académiques, Ministère de l'Éducation nationale de la République française (2007).
 Honorary Certificate, Euregio Meuse-Rhin (La Rosette Eurégionale).</t>
         </is>
@@ -625,15 +643,54 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Internationales
-Membre fondateur de la VZV Research Foundation[18] (Fondation Internationale pour la Recherche contre le Virus de la Varicelle et du Zona), New York, USA, membre de son Scientific Advisory Board (1991-2006), Président de son Comité International (1993-2006) et membre de son Comité exécutif (1994-2006)[14].
-Vice-président de la European Federation of Biotechnology (en) (2001-2004)[14].
-Président d'EuroVar[19], Association européenne pour la prévention de la varicelle et du zona (1998-2005)[14].
-Nationales
-Administrateur du FNRS (1997-2014)[14], dont il a été président à deux reprises (2005-2006 et 2008-2011).
-Vice-président du Conseil fédéral belge de la Politique scientifique[1] (depuis 2014).
-Membre de la Société royale des sciences de Liège[14].
-Président des Les Amis de l’ULiège[20]</t>
+          <t>Internationales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Membre fondateur de la VZV Research Foundation (Fondation Internationale pour la Recherche contre le Virus de la Varicelle et du Zona), New York, USA, membre de son Scientific Advisory Board (1991-2006), Président de son Comité International (1993-2006) et membre de son Comité exécutif (1994-2006).
+Vice-président de la European Federation of Biotechnology (en) (2001-2004).
+Président d'EuroVar, Association européenne pour la prévention de la varicelle et du zona (1998-2005).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bernard_Rentier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernard_Rentier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sociétés scientifiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nationales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Administrateur du FNRS (1997-2014), dont il a été président à deux reprises (2005-2006 et 2008-2011).
+Vice-président du Conseil fédéral belge de la Politique scientifique (depuis 2014).
+Membre de la Société royale des sciences de Liège.
+Président des Les Amis de l’ULiège</t>
         </is>
       </c>
     </row>
